--- a/Data/FileExport/XLSXTemplate/template.xlsx
+++ b/Data/FileExport/XLSXTemplate/template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
   <si>
     <t xml:space="preserve">Báo Giá Nội Thất Công Ty TNHH Kiến Trúc Xây Dựng Nội Thất A One</t>
   </si>
@@ -74,13 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nghiệm thu quyết toán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chú thích:
- - Báo giá đã bao gồm vận chuyển nội thành, lắp đặt, phí đo đạc thiết kế.
- - Đơn giá trên chưa bao gồm VAT, khách hàng chỉ chịu phí VAT = 10% tổng gía trị hợp đồng khi muốn xuất hóa đơn đỏ.
- - Bảo hành phần gỗ 2 năm, phụ kiện bảo hành 2 năm theo hãng.
- - Khối lượng thực tế tính theo kích thước tại công trình.</t>
   </si>
   <si>
     <t xml:space="preserve">Bên A</t>
@@ -359,6 +352,13 @@
   </si>
   <si>
     <t xml:space="preserve"> Thanh toán  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chú thích:
+ - Báo giá đã bao gồm vận chuyển nội thành, lắp đặt, phí đo đạc thiết kế.
+ - Đơn giá trên chưa bao gồm VAT, khách hàng chỉ chịu phí VAT = 10% tổng gía trị hợp đồng khi muốn xuất hóa đơn đỏ.
+ - Bảo hành phần gỗ 2 năm, phụ kiện bảo hành 2 năm theo hãng.
+ - Khối lượng thực tế tính theo kích thước tại công trình.</t>
   </si>
   <si>
     <t xml:space="preserve">Khách hàng: </t>
@@ -896,7 +896,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -943,10 +943,6 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1418,13 +1414,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
@@ -1581,155 +1577,152 @@
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="15"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="20"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K20" s="20"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K21" s="20"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K22" s="20"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K23" s="20"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1785,7 +1778,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
@@ -1799,100 +1792,100 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="27" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="27" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="9"/>
@@ -1901,43 +1894,43 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="31"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="31"/>
+        <v>28</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -1946,13 +1939,13 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
@@ -1961,706 +1954,706 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="34" t="s">
+      <c r="J12" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="s">
+      <c r="B14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38" t="n">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37" t="n">
         <f aca="false">SUM(J15:J18)</f>
         <v>69645100</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="n">
+      <c r="A15" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="39" t="n">
+      <c r="D15" s="38" t="n">
         <f aca="false">2505*2+3200</f>
         <v>8210</v>
       </c>
-      <c r="E15" s="39" t="n">
+      <c r="E15" s="38" t="n">
         <v>600</v>
       </c>
-      <c r="F15" s="39" t="n">
+      <c r="F15" s="38" t="n">
         <v>810</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="42" t="n">
+      <c r="G15" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="41" t="n">
         <v>3750000</v>
       </c>
-      <c r="I15" s="43" t="n">
+      <c r="I15" s="42" t="n">
         <f aca="false">D15/10^3</f>
         <v>8.21</v>
       </c>
-      <c r="J15" s="20" t="n">
+      <c r="J15" s="19" t="n">
         <f aca="false">I15*H15</f>
         <v>30787500</v>
       </c>
-      <c r="K15" s="20"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="n">
+      <c r="A16" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="39" t="n">
+      <c r="D16" s="38" t="n">
         <f aca="false">D15+250-2050</f>
         <v>6410</v>
       </c>
-      <c r="E16" s="39" t="n">
+      <c r="E16" s="38" t="n">
         <v>350</v>
       </c>
-      <c r="F16" s="39" t="n">
+      <c r="F16" s="38" t="n">
         <v>800</v>
       </c>
-      <c r="G16" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="42" t="n">
+      <c r="G16" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="41" t="n">
         <v>2860000</v>
       </c>
-      <c r="I16" s="43" t="n">
+      <c r="I16" s="42" t="n">
         <f aca="false">D16/10^3</f>
         <v>6.41</v>
       </c>
-      <c r="J16" s="20" t="n">
+      <c r="J16" s="19" t="n">
         <f aca="false">I16*H16</f>
         <v>18332600</v>
       </c>
-      <c r="K16" s="20"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39" t="n">
+      <c r="A17" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="39" t="n">
+      <c r="D17" s="38" t="n">
         <f aca="false">D16</f>
         <v>6410</v>
       </c>
-      <c r="E17" s="39" t="n">
+      <c r="E17" s="38" t="n">
         <v>350</v>
       </c>
-      <c r="F17" s="39" t="n">
+      <c r="F17" s="38" t="n">
         <f aca="false">2815-810-800-600</f>
         <v>605</v>
       </c>
-      <c r="G17" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="42" t="n">
+      <c r="G17" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="41" t="n">
         <v>2500000</v>
       </c>
-      <c r="I17" s="43" t="n">
+      <c r="I17" s="42" t="n">
         <f aca="false">D17/10^3</f>
         <v>6.41</v>
       </c>
-      <c r="J17" s="20" t="n">
+      <c r="J17" s="19" t="n">
         <f aca="false">I17*H17</f>
         <v>16025000</v>
       </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="n">
+      <c r="A18" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="39" t="n">
+      <c r="D18" s="38" t="n">
         <v>1200</v>
       </c>
-      <c r="E18" s="39" t="n">
+      <c r="E18" s="38" t="n">
         <v>700</v>
       </c>
-      <c r="F18" s="39" t="n">
+      <c r="F18" s="38" t="n">
         <v>870</v>
       </c>
-      <c r="G18" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="42" t="n">
+      <c r="G18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="41" t="n">
         <f aca="false">H15</f>
         <v>3750000</v>
       </c>
-      <c r="I18" s="43" t="n">
+      <c r="I18" s="42" t="n">
         <f aca="false">D18/10^3</f>
         <v>1.2</v>
       </c>
-      <c r="J18" s="20" t="n">
+      <c r="J18" s="19" t="n">
         <f aca="false">I18*H18</f>
         <v>4500000</v>
       </c>
-      <c r="K18" s="20"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39"/>
-      <c r="B19" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45" t="n">
+      <c r="A19" s="38"/>
+      <c r="B19" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44" t="n">
         <f aca="false">SUM(J20:J30)</f>
         <v>21425000</v>
       </c>
-      <c r="K19" s="20"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="n">
+      <c r="A20" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="48" t="n">
+      <c r="H20" s="47" t="n">
         <v>550000</v>
       </c>
-      <c r="I20" s="49" t="n">
+      <c r="I20" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="20" t="n">
+      <c r="J20" s="19" t="n">
         <f aca="false">I20*H20</f>
         <v>1100000</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="n">
+      <c r="A21" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="47" t="s">
+      <c r="B21" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="48" t="n">
+      <c r="H21" s="47" t="n">
         <v>450000</v>
       </c>
-      <c r="I21" s="49" t="n">
+      <c r="I21" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="20" t="n">
+      <c r="J21" s="19" t="n">
         <f aca="false">I21*H21</f>
         <v>1350000</v>
       </c>
-      <c r="K21" s="20"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39" t="n">
+      <c r="A22" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="48" t="n">
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="47" t="n">
         <v>1705000</v>
       </c>
-      <c r="I22" s="49" t="n">
+      <c r="I22" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="20" t="n">
+      <c r="J22" s="19" t="n">
         <f aca="false">I22*H22</f>
         <v>3410000</v>
       </c>
-      <c r="K22" s="20"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39" t="n">
+      <c r="A23" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="51" t="n">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="50" t="n">
         <v>1900000</v>
       </c>
-      <c r="I23" s="49" t="n">
+      <c r="I23" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="20" t="n">
+      <c r="J23" s="19" t="n">
         <f aca="false">I23*H23</f>
         <v>1900000</v>
       </c>
-      <c r="K23" s="20"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39" t="n">
+      <c r="A24" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="51" t="n">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="50" t="n">
         <v>1900000</v>
       </c>
-      <c r="I24" s="49" t="n">
+      <c r="I24" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="20" t="n">
+      <c r="J24" s="19" t="n">
         <f aca="false">I24*H24</f>
         <v>1900000</v>
       </c>
-      <c r="K24" s="20"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="39" t="n">
+      <c r="A25" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="52" t="n">
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="51" t="n">
         <v>5885000</v>
       </c>
-      <c r="I25" s="49" t="n">
+      <c r="I25" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="20" t="n">
+      <c r="J25" s="19" t="n">
         <f aca="false">I25*H25</f>
         <v>5885000</v>
       </c>
-      <c r="K25" s="20"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39" t="n">
+      <c r="A26" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="51" t="n">
+      <c r="H26" s="50" t="n">
         <v>880000</v>
       </c>
-      <c r="I26" s="49" t="n">
+      <c r="I26" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="20" t="n">
+      <c r="J26" s="19" t="n">
         <f aca="false">I26*H26</f>
         <v>880000</v>
       </c>
-      <c r="K26" s="20"/>
+      <c r="K26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="39" t="n">
+      <c r="A27" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="52" t="n">
+      <c r="H27" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="43" t="n">
+      <c r="I27" s="42" t="n">
         <v>48</v>
       </c>
-      <c r="J27" s="20" t="n">
+      <c r="J27" s="19" t="n">
         <f aca="false">I27*H27</f>
         <v>0</v>
       </c>
-      <c r="K27" s="20"/>
+      <c r="K27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="39" t="n">
+      <c r="A28" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="52" t="n">
+      <c r="H28" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="49" t="n">
+      <c r="I28" s="48" t="n">
         <v>8</v>
       </c>
-      <c r="J28" s="20" t="n">
+      <c r="J28" s="19" t="n">
         <f aca="false">I28*H28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="20"/>
+      <c r="K28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="39" t="n">
+      <c r="A29" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="52" t="n">
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="43" t="n">
+      <c r="I29" s="42" t="n">
         <v>16</v>
       </c>
-      <c r="J29" s="20" t="n">
+      <c r="J29" s="19" t="n">
         <f aca="false">I29*H29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="20"/>
+      <c r="K29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="39" t="n">
+      <c r="A30" s="38" t="n">
         <v>11</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" s="53" t="n">
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="52" t="n">
         <v>100000</v>
       </c>
-      <c r="I30" s="54" t="n">
+      <c r="I30" s="53" t="n">
         <v>50</v>
       </c>
-      <c r="J30" s="20" t="n">
+      <c r="J30" s="19" t="n">
         <f aca="false">I30*H30</f>
         <v>5000000</v>
       </c>
-      <c r="K30" s="20"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="39"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="45" t="n">
+      <c r="A31" s="38"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="56"/>
+      <c r="J31" s="44" t="n">
         <f aca="false">SUM(J19+J14)</f>
         <v>91070100</v>
       </c>
-      <c r="K31" s="20"/>
+      <c r="K31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="58"/>
-      <c r="J32" s="59" t="n">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58" t="n">
         <f aca="false">J31*97/100</f>
         <v>88337997</v>
       </c>
-      <c r="K32" s="60"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="61" t="n">
+      <c r="A33" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="63" t="s">
+      <c r="I33" s="62"/>
+      <c r="J33" s="63" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="K33" s="64"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="60" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="I33" s="63"/>
-      <c r="J33" s="64" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="K33" s="65"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="B34" s="62" t="s">
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="63" t="s">
+      <c r="I34" s="62"/>
+      <c r="J34" s="63" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="K34" s="65"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="63"/>
-      <c r="J34" s="64" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="K34" s="66"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="61" t="n">
-        <v>3</v>
-      </c>
-      <c r="B35" s="67" t="s">
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="63" t="s">
+      <c r="I35" s="62"/>
+      <c r="J35" s="63" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="K35" s="64"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="I35" s="63"/>
-      <c r="J35" s="64" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="K35" s="65"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="61" t="n">
-        <v>4</v>
-      </c>
-      <c r="B36" s="62" t="s">
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" s="63"/>
-      <c r="J36" s="64" t="n">
+      <c r="I36" s="62"/>
+      <c r="J36" s="63" t="n">
         <f aca="false">J32-J33-J34-J35</f>
         <v>10337997</v>
       </c>
-      <c r="K36" s="68"/>
+      <c r="K36" s="67"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="K37" s="23"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="K37" s="24"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="H39" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="H39" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -2733,7 +2726,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.29"/>
@@ -2748,729 +2741,729 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="27" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="27" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="75"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="77" t="n">
+      <c r="B8" s="76" t="n">
         <v>356188889</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="75"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="75"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="76"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="75"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="81" t="s">
+      <c r="J12" s="80" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="84" t="n">
+      <c r="A15" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="85" t="s">
+      <c r="B15" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="84" t="n">
+      <c r="D15" s="83" t="n">
         <v>2500</v>
       </c>
-      <c r="E15" s="84" t="n">
+      <c r="E15" s="83" t="n">
         <v>600</v>
       </c>
-      <c r="F15" s="84" t="n">
+      <c r="F15" s="83" t="n">
         <v>810</v>
       </c>
-      <c r="G15" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="86" t="n">
+      <c r="G15" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="85" t="n">
         <v>3300000</v>
       </c>
-      <c r="I15" s="87" t="n">
+      <c r="I15" s="86" t="n">
         <f aca="false">D15/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J15" s="88" t="n">
+      <c r="J15" s="87" t="n">
         <f aca="false">I15*H15</f>
         <v>8250000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91" t="s">
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="91"/>
-      <c r="J16" s="92" t="n">
+      <c r="I16" s="90"/>
+      <c r="J16" s="91" t="n">
         <f aca="false">SUM(J15)</f>
         <v>8250000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
     </row>
     <row r="18" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="84" t="n">
+      <c r="A18" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="84" t="n">
+      <c r="D18" s="83" t="n">
         <f aca="false">2500</f>
         <v>2500</v>
       </c>
-      <c r="E18" s="84" t="n">
+      <c r="E18" s="83" t="n">
         <v>600</v>
       </c>
-      <c r="F18" s="84" t="n">
+      <c r="F18" s="83" t="n">
         <v>8</v>
       </c>
-      <c r="G18" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="86" t="n">
+      <c r="G18" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="85" t="n">
         <v>850000</v>
       </c>
-      <c r="I18" s="87" t="n">
+      <c r="I18" s="86" t="n">
         <f aca="false">D18/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J18" s="17" t="n">
+      <c r="J18" s="16" t="n">
         <f aca="false">I18*H18</f>
         <v>2125000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="84" t="n">
+      <c r="A19" s="83" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="84" t="n">
+      <c r="D19" s="83" t="n">
         <v>2500</v>
       </c>
-      <c r="E19" s="84" t="n">
+      <c r="E19" s="83" t="n">
         <v>600</v>
       </c>
-      <c r="F19" s="84" t="n">
+      <c r="F19" s="83" t="n">
         <v>40</v>
       </c>
-      <c r="G19" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="86" t="n">
+      <c r="G19" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="85" t="n">
         <v>1350000</v>
       </c>
-      <c r="I19" s="87" t="n">
+      <c r="I19" s="86" t="n">
         <f aca="false">D19/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J19" s="17" t="n">
+      <c r="J19" s="16" t="n">
         <f aca="false">I19*H19</f>
         <v>3375000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="84" t="n">
+      <c r="A20" s="83" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="93" t="s">
+      <c r="B20" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="94" t="n">
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="93" t="n">
         <v>1800000</v>
       </c>
-      <c r="I20" s="95" t="n">
+      <c r="I20" s="94" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="96" t="n">
+      <c r="J20" s="95" t="n">
         <f aca="false">I20*H20</f>
         <v>1800000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="84" t="n">
+      <c r="A21" s="83" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="97" t="s">
+      <c r="B21" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="94" t="n">
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="93" t="n">
         <v>1770000</v>
       </c>
-      <c r="I21" s="95" t="n">
+      <c r="I21" s="94" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="96" t="n">
+      <c r="J21" s="95" t="n">
         <f aca="false">I21*H21</f>
         <v>1770000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="84" t="n">
+      <c r="A22" s="83" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="98" t="s">
+      <c r="D22" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="50" t="s">
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="94" t="n">
+      <c r="H22" s="93" t="n">
         <v>1550000</v>
       </c>
-      <c r="I22" s="95" t="n">
+      <c r="I22" s="94" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="99" t="n">
+      <c r="J22" s="98" t="n">
         <f aca="false">I22*H22</f>
         <v>3100000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="84" t="n">
+      <c r="A23" s="83" t="n">
         <v>6</v>
       </c>
-      <c r="B23" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="97" t="s">
+      <c r="B23" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="98" t="s">
+      <c r="D23" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="94" t="n">
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="93" t="n">
         <v>1770000</v>
       </c>
-      <c r="I23" s="95" t="n">
+      <c r="I23" s="94" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="99" t="n">
+      <c r="J23" s="98" t="n">
         <f aca="false">I23*H23</f>
         <v>1770000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="84" t="n">
+      <c r="A24" s="83" t="n">
         <v>7</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="86" t="n">
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="85" t="n">
         <v>105000</v>
       </c>
-      <c r="I24" s="87" t="n">
+      <c r="I24" s="86" t="n">
         <v>6</v>
       </c>
-      <c r="J24" s="88" t="n">
+      <c r="J24" s="87" t="n">
         <f aca="false">I24*H24</f>
         <v>630000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="84" t="n">
+      <c r="A25" s="83" t="n">
         <v>8</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="100" t="s">
+      <c r="B25" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47" t="s">
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="86" t="n">
+      <c r="H25" s="85" t="n">
         <v>155000</v>
       </c>
-      <c r="I25" s="87" t="n">
+      <c r="I25" s="86" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="88" t="n">
+      <c r="J25" s="87" t="n">
         <f aca="false">I25*H25</f>
         <v>620000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="84" t="n">
+      <c r="A26" s="83" t="n">
         <v>9</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="86" t="n">
+      <c r="H26" s="85" t="n">
         <v>49500</v>
       </c>
-      <c r="I26" s="87" t="n">
+      <c r="I26" s="86" t="n">
         <v>20</v>
       </c>
-      <c r="J26" s="88" t="n">
+      <c r="J26" s="87" t="n">
         <f aca="false">I26*H26</f>
         <v>990000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="84" t="n">
+      <c r="A27" s="83" t="n">
         <v>10</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="86" t="n">
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="85" t="n">
         <v>100000</v>
       </c>
-      <c r="I27" s="101" t="n">
+      <c r="I27" s="100" t="n">
         <v>10</v>
       </c>
-      <c r="J27" s="88" t="n">
+      <c r="J27" s="87" t="n">
         <f aca="false">I27*H27</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="84" t="n">
+      <c r="A28" s="83" t="n">
         <v>11</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="97" t="s">
+      <c r="C28" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="103" t="s">
+      <c r="D28" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="94" t="n">
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="93" t="n">
         <v>275000</v>
       </c>
-      <c r="I28" s="101" t="n">
+      <c r="I28" s="100" t="n">
         <v>3</v>
       </c>
-      <c r="J28" s="88" t="n">
+      <c r="J28" s="87" t="n">
         <f aca="false">I28*H28</f>
         <v>825000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="104"/>
-      <c r="B29" s="105" t="s">
+      <c r="A29" s="103"/>
+      <c r="B29" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="91" t="s">
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="91"/>
-      <c r="J29" s="106" t="n">
+      <c r="I29" s="90"/>
+      <c r="J29" s="105" t="n">
         <f aca="false">SUM(J18:J28)</f>
         <v>18005000</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="104"/>
-      <c r="B30" s="105" t="s">
+      <c r="A30" s="103"/>
+      <c r="B30" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="107" t="s">
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="107"/>
-      <c r="J30" s="108" t="n">
+      <c r="I30" s="106"/>
+      <c r="J30" s="107" t="n">
         <f aca="false">J16+J29</f>
         <v>26255000</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="109"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="24"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="109"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="24"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="109"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="24"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="109"/>
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="24"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="109"/>
-      <c r="B36" s="109"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="24"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/Data/FileExport/XLSXTemplate/template.xlsx
+++ b/Data/FileExport/XLSXTemplate/template.xlsx
@@ -896,7 +896,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -977,356 +977,360 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1417,10 +1421,10 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
@@ -1778,7 +1782,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
@@ -2726,7 +2730,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.29"/>
@@ -3392,77 +3396,77 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="108"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="108"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="109"/>
       <c r="J32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="108"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="109"/>
       <c r="J33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="108"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="108"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="109"/>
       <c r="J34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="108"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="108"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="109"/>
       <c r="J35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="108"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="108"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="109"/>
       <c r="J36" s="23"/>
     </row>
   </sheetData>

--- a/Data/FileExport/XLSXTemplate/template.xlsx
+++ b/Data/FileExport/XLSXTemplate/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Java\App-noi-that\Data\FileExport\XLSXTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7D58F6-DF70-46A7-8B61-535509B0975A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7879E00-51CD-4A03-BECB-3EF6C395AF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="115">
-  <si>
-    <t>Báo Giá Nội Thất Công Ty TNHH Kiến Trúc Xây Dựng Nội Thất A One</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -883,378 +880,378 @@
   </cellStyleXfs>
   <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1644,7 +1641,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
@@ -1660,298 +1657,298 @@
     <col min="11" max="11" width="37.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
+    <row r="1" spans="1:11" ht="37.5" customHeight="1">
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="16"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="16"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="16"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="16"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="22.15" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A12" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="J12" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="K12" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="9" t="s">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="89"/>
+    </row>
+    <row r="14" spans="1:11" ht="47.85" customHeight="1">
+      <c r="A14" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="90"/>
+      <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="47.85" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="E14" s="85"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="84"/>
+      <c r="I14" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="122"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="121"/>
-      <c r="I14" s="120" t="s">
+      <c r="J14" s="84"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" ht="90.95" customHeight="1">
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A17" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="121"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="27"/>
-    </row>
-    <row r="16" spans="1:11" ht="90.95" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="27"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="27"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" ht="17.45" customHeight="1">
-      <c r="K20" s="27"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K21" s="27"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K22" s="27"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="K23" s="27"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="32" spans="1:11" ht="17.45" customHeight="1"/>
     <row r="33" ht="32.85" customHeight="1"/>
@@ -1965,15 +1962,6 @@
     <row r="41" ht="16.149999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:C19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
@@ -1987,6 +1975,15 @@
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:C19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2016,918 +2013,918 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="A7" s="94" t="s">
+      <c r="B7" s="110"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="94" t="s">
+      <c r="B8" s="110"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="18" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="A10" s="94" t="s">
+      <c r="B10" s="110"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="94" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="95" t="s">
+      <c r="D12" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="95" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="96" t="s">
+      <c r="J12" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5">
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="89"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="B14" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="36">
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="23">
         <f>SUM(J15:J18)</f>
         <v>69645100</v>
       </c>
-      <c r="K14" s="25"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="78.75">
-      <c r="A15" s="37">
+      <c r="A15" s="24">
         <v>1</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="37">
+      <c r="D15" s="24">
         <f>2505*2+3200</f>
         <v>8210</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="24">
         <v>600</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="24">
         <v>810</v>
       </c>
-      <c r="G15" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="40">
+      <c r="G15" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="27">
         <v>3750000</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="28">
         <f>D15/10^3</f>
         <v>8.2100000000000009</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="14">
         <f>I15*H15</f>
         <v>30787500.000000004</v>
       </c>
-      <c r="K15" s="27"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11" ht="78.75">
-      <c r="A16" s="37">
+      <c r="A16" s="24">
         <v>2</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="37">
+      <c r="D16" s="24">
         <f>D15+250-2050</f>
         <v>6410</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="24">
         <v>350</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="24">
         <v>800</v>
       </c>
-      <c r="G16" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="40">
+      <c r="G16" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="27">
         <v>2860000</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="28">
         <f>D16/10^3</f>
         <v>6.41</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="14">
         <f>I16*H16</f>
         <v>18332600</v>
       </c>
-      <c r="K16" s="27"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" ht="63">
-      <c r="A17" s="37">
+      <c r="A17" s="24">
         <v>3</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="37">
+      <c r="D17" s="24">
         <f>D16</f>
         <v>6410</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="24">
         <v>350</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="24">
         <f>2815-810-800-600</f>
         <v>605</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="40">
+      <c r="G17" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="27">
         <v>2500000</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="28">
         <f>D17/10^3</f>
         <v>6.41</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="14">
         <f>I17*H17</f>
         <v>16025000</v>
       </c>
-      <c r="K17" s="27"/>
+      <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="78.75">
-      <c r="A18" s="37">
+      <c r="A18" s="24">
         <v>4</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="37">
+      <c r="D18" s="24">
         <v>1200</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="24">
         <v>700</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="24">
         <v>870</v>
       </c>
-      <c r="G18" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="40">
+      <c r="G18" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="27">
         <f>H15</f>
         <v>3750000</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="28">
         <f>D18/10^3</f>
         <v>1.2</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="14">
         <f>I18*H18</f>
         <v>4500000</v>
       </c>
-      <c r="K18" s="27"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="42">
+      <c r="A19" s="24"/>
+      <c r="B19" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="29">
         <f>SUM(J20:J30)</f>
         <v>21425000</v>
       </c>
-      <c r="K19" s="27"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" ht="33">
-      <c r="A20" s="37">
+      <c r="A20" s="24">
         <v>1</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="31" t="s">
         <v>44</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>45</v>
       </c>
       <c r="D20" s="100"/>
       <c r="E20" s="100"/>
       <c r="F20" s="100"/>
-      <c r="G20" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="45">
+      <c r="G20" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="32">
         <v>550000</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="33">
         <v>2</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="14">
         <f t="shared" ref="J20:J30" si="0">I20*H20</f>
         <v>1100000</v>
       </c>
-      <c r="K20" s="27"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" ht="33">
-      <c r="A21" s="37">
+      <c r="A21" s="24">
         <v>2</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>45</v>
+      <c r="B21" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="D21" s="100"/>
       <c r="E21" s="100"/>
       <c r="F21" s="100"/>
-      <c r="G21" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="45">
+      <c r="G21" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="32">
         <v>450000</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="33">
         <v>3</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="14">
         <f t="shared" si="0"/>
         <v>1350000</v>
       </c>
-      <c r="K21" s="27"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" ht="16.5">
-      <c r="A22" s="37">
+      <c r="A22" s="24">
         <v>3</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>49</v>
       </c>
       <c r="D22" s="100"/>
       <c r="E22" s="100"/>
       <c r="F22" s="100"/>
-      <c r="G22" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="45">
+      <c r="G22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="32">
         <v>1705000</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="33">
         <v>2</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="14">
         <f t="shared" si="0"/>
         <v>3410000</v>
       </c>
-      <c r="K22" s="27"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" ht="16.5">
-      <c r="A23" s="37">
+      <c r="A23" s="24">
         <v>4</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>50</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>51</v>
       </c>
       <c r="D23" s="100"/>
       <c r="E23" s="100"/>
       <c r="F23" s="100"/>
-      <c r="G23" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="48">
+      <c r="G23" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="35">
         <v>1900000</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="33">
         <v>1</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="14">
         <f t="shared" si="0"/>
         <v>1900000</v>
       </c>
-      <c r="K23" s="27"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" ht="16.5">
-      <c r="A24" s="37">
+      <c r="A24" s="24">
         <v>5</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>53</v>
       </c>
       <c r="D24" s="100"/>
       <c r="E24" s="100"/>
       <c r="F24" s="100"/>
-      <c r="G24" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="48">
+      <c r="G24" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="35">
         <v>1900000</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="33">
         <v>1</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="14">
         <f t="shared" si="0"/>
         <v>1900000</v>
       </c>
-      <c r="K24" s="27"/>
+      <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" ht="16.5">
-      <c r="A25" s="37">
+      <c r="A25" s="24">
         <v>6</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>54</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>55</v>
       </c>
       <c r="D25" s="100"/>
       <c r="E25" s="100"/>
       <c r="F25" s="100"/>
-      <c r="G25" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="49">
+      <c r="G25" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="36">
         <v>5885000</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="33">
         <v>1</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="14">
         <f t="shared" si="0"/>
         <v>5885000</v>
       </c>
-      <c r="K25" s="27"/>
+      <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" ht="16.5">
-      <c r="A26" s="37">
+      <c r="A26" s="24">
         <v>7</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="48">
+      <c r="H26" s="35">
         <v>880000</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="33">
         <v>1</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="14">
         <f t="shared" si="0"/>
         <v>880000</v>
       </c>
-      <c r="K26" s="27"/>
+      <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="37">
+      <c r="A27" s="24">
         <v>8</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>60</v>
       </c>
       <c r="D27" s="100"/>
       <c r="E27" s="100"/>
       <c r="F27" s="100"/>
-      <c r="G27" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="49">
+      <c r="G27" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="36">
         <v>0</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="28">
         <v>48</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="27"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="37">
+      <c r="A28" s="24">
         <v>9</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>63</v>
       </c>
       <c r="D28" s="100"/>
       <c r="E28" s="100"/>
       <c r="F28" s="100"/>
-      <c r="G28" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="49">
+      <c r="G28" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="36">
         <v>0</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="33">
         <v>8</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="27"/>
+      <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="37">
+      <c r="A29" s="24">
         <v>10</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>66</v>
       </c>
       <c r="D29" s="100"/>
       <c r="E29" s="100"/>
       <c r="F29" s="100"/>
-      <c r="G29" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="49">
+      <c r="G29" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="36">
         <v>0</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I29" s="28">
         <v>16</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="27"/>
+      <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="37">
+      <c r="A30" s="24">
         <v>11</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>67</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>68</v>
       </c>
       <c r="D30" s="100"/>
       <c r="E30" s="100"/>
       <c r="F30" s="100"/>
-      <c r="G30" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="50">
+      <c r="G30" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="37">
         <v>100000</v>
       </c>
-      <c r="I30" s="51">
+      <c r="I30" s="38">
         <v>50</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="14">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
-      <c r="K30" s="27"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" s="102"/>
-      <c r="J31" s="42">
+      <c r="A31" s="24"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="101"/>
+      <c r="J31" s="29">
         <f>SUM(J19+J14)</f>
         <v>91070100</v>
       </c>
-      <c r="K31" s="27"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
       <c r="H32" s="103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I32" s="103"/>
-      <c r="J32" s="54">
+      <c r="J32" s="41">
         <f>J31*97/100</f>
         <v>88337997</v>
       </c>
-      <c r="K32" s="55"/>
+      <c r="K32" s="42"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
-      <c r="A33" s="56">
+      <c r="A33" s="43">
         <v>1</v>
       </c>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="105" t="s">
+      <c r="I33" s="97"/>
+      <c r="J33" s="44">
+        <v>13000000</v>
+      </c>
+      <c r="K33" s="45"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
+      <c r="A34" s="43">
+        <v>2</v>
+      </c>
+      <c r="B34" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="I33" s="105"/>
-      <c r="J33" s="57">
-        <v>13000000</v>
-      </c>
-      <c r="K33" s="58"/>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1">
-      <c r="A34" s="56">
-        <v>2</v>
-      </c>
-      <c r="B34" s="104" t="s">
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="105" t="s">
+      <c r="I34" s="97"/>
+      <c r="J34" s="44">
+        <v>35000000</v>
+      </c>
+      <c r="K34" s="46"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
+      <c r="A35" s="43">
+        <v>3</v>
+      </c>
+      <c r="B35" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="105"/>
-      <c r="J34" s="57">
-        <v>35000000</v>
-      </c>
-      <c r="K34" s="59"/>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1">
-      <c r="A35" s="56">
-        <v>3</v>
-      </c>
-      <c r="B35" s="106" t="s">
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="105" t="s">
+      <c r="I35" s="97"/>
+      <c r="J35" s="44">
+        <v>30000000</v>
+      </c>
+      <c r="K35" s="45"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="43">
+        <v>4</v>
+      </c>
+      <c r="B36" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="I35" s="105"/>
-      <c r="J35" s="57">
-        <v>30000000</v>
-      </c>
-      <c r="K35" s="58"/>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1">
-      <c r="A36" s="56">
-        <v>4</v>
-      </c>
-      <c r="B36" s="104" t="s">
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="105"/>
-      <c r="J36" s="57">
+      <c r="I36" s="97"/>
+      <c r="J36" s="44">
         <f>J32-J33-J34-J35</f>
         <v>10337997</v>
       </c>
-      <c r="K36" s="60"/>
+      <c r="K36" s="47"/>
     </row>
     <row r="37" spans="1:11" ht="409.5">
-      <c r="A37" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="K37" s="29"/>
+      <c r="A37" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="K37" s="16"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
+      <c r="A39" s="82"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="H39" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="H39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A38:C40"/>
-    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A1:B5"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="H35:I35"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:B5"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A38:C40"/>
+    <mergeCell ref="H39:I39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2961,747 +2958,738 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+    </row>
+    <row r="3" spans="1:10" ht="24" customHeight="1">
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1">
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1">
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A6" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A6" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A8" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A8" s="62" t="s">
+      <c r="B8" s="54">
+        <v>356188889</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A9" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="67">
-        <v>356188889</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A10" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A10" s="62" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A11" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A11" s="62" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="A12" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5">
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+    </row>
+    <row r="14" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A14" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="95" t="s">
+      <c r="B14" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+    </row>
+    <row r="15" spans="1:10" ht="66" customHeight="1">
+      <c r="A15" s="59">
         <v>1</v>
       </c>
-      <c r="B12" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="109" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-    </row>
-    <row r="14" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A14" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="110" t="s">
+      <c r="B15" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-    </row>
-    <row r="15" spans="1:10" ht="66" customHeight="1">
-      <c r="A15" s="72">
-        <v>1</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="72">
+      <c r="D15" s="59">
         <v>2500</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="59">
         <v>600</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="59">
         <v>810</v>
       </c>
-      <c r="G15" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="74">
+      <c r="G15" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="61">
         <v>3300000</v>
       </c>
-      <c r="I15" s="75">
+      <c r="I15" s="62">
         <f>D15/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J15" s="76">
+      <c r="J15" s="63">
         <f>I15*H15</f>
         <v>8250000</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="111" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="123" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="112" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="112"/>
-      <c r="J16" s="78">
+      <c r="I16" s="115"/>
+      <c r="J16" s="65">
         <f>SUM(J15)</f>
         <v>8250000</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+    </row>
+    <row r="18" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A18" s="59">
+        <v>1</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-    </row>
-    <row r="18" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A18" s="72">
-        <v>1</v>
-      </c>
-      <c r="B18" s="44" t="s">
+      <c r="C18" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="72">
+      <c r="D18" s="59">
         <f>2500</f>
         <v>2500</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="59">
         <v>600</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="59">
         <v>8</v>
       </c>
-      <c r="G18" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="74">
+      <c r="G18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="61">
         <v>850000</v>
       </c>
-      <c r="I18" s="75">
+      <c r="I18" s="62">
         <f>D18/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="12">
         <f t="shared" ref="J18:J28" si="0">I18*H18</f>
         <v>2125000</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A19" s="72">
+      <c r="A19" s="59">
         <v>2</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="72">
+      <c r="D19" s="59">
         <v>2500</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="59">
         <v>600</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="59">
         <v>40</v>
       </c>
-      <c r="G19" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="74">
+      <c r="G19" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="61">
         <v>1350000</v>
       </c>
-      <c r="I19" s="75">
+      <c r="I19" s="62">
         <f>D19/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="12">
         <f t="shared" si="0"/>
         <v>3375000</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="56.25" customHeight="1">
-      <c r="A20" s="72">
+      <c r="A20" s="59">
         <v>3</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="79" t="s">
+      <c r="B20" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="80">
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="67">
         <v>1800000</v>
       </c>
-      <c r="I20" s="81">
+      <c r="I20" s="68">
         <v>1</v>
       </c>
-      <c r="J20" s="82">
+      <c r="J20" s="69">
         <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="54.75" customHeight="1">
-      <c r="A21" s="72">
+      <c r="A21" s="59">
         <v>4</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="83" t="s">
+      <c r="B21" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="80">
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="67">
         <v>1770000</v>
       </c>
-      <c r="I21" s="81">
+      <c r="I21" s="68">
         <v>1</v>
       </c>
-      <c r="J21" s="82">
+      <c r="J21" s="69">
         <f t="shared" si="0"/>
         <v>1770000</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
-      <c r="A22" s="72">
+      <c r="A22" s="59">
         <v>5</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="119" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="80">
+      <c r="H22" s="67">
         <v>1550000</v>
       </c>
-      <c r="I22" s="81">
+      <c r="I22" s="68">
         <v>2</v>
       </c>
-      <c r="J22" s="84">
+      <c r="J22" s="71">
         <f t="shared" si="0"/>
         <v>3100000</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="60.75" customHeight="1">
-      <c r="A23" s="72">
+      <c r="A23" s="59">
         <v>6</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="83" t="s">
+      <c r="B23" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="114" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="80">
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="67">
         <v>1770000</v>
       </c>
-      <c r="I23" s="81">
+      <c r="I23" s="68">
         <v>1</v>
       </c>
-      <c r="J23" s="84">
+      <c r="J23" s="71">
         <f t="shared" si="0"/>
         <v>1770000</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A24" s="72">
+      <c r="A24" s="59">
         <v>7</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="74">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="61">
         <v>105000</v>
       </c>
-      <c r="I24" s="75">
+      <c r="I24" s="62">
         <v>6</v>
       </c>
-      <c r="J24" s="76">
+      <c r="J24" s="63">
         <f t="shared" si="0"/>
         <v>630000</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A25" s="72">
+      <c r="A25" s="59">
         <v>8</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="85" t="s">
+      <c r="B25" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="74">
+      <c r="H25" s="61">
         <v>155000</v>
       </c>
-      <c r="I25" s="75">
+      <c r="I25" s="62">
         <v>4</v>
       </c>
-      <c r="J25" s="76">
+      <c r="J25" s="63">
         <f t="shared" si="0"/>
         <v>620000</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1">
-      <c r="A26" s="72">
+      <c r="A26" s="59">
         <v>9</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="74">
+      <c r="H26" s="61">
         <v>49500</v>
       </c>
-      <c r="I26" s="75">
+      <c r="I26" s="62">
         <v>20</v>
       </c>
-      <c r="J26" s="76">
+      <c r="J26" s="63">
         <f t="shared" si="0"/>
         <v>990000</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A27" s="72">
+      <c r="A27" s="59">
         <v>10</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="115" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="74">
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="61">
         <v>100000</v>
       </c>
-      <c r="I27" s="86">
+      <c r="I27" s="73">
         <v>10</v>
       </c>
-      <c r="J27" s="76">
+      <c r="J27" s="63">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A28" s="72">
+      <c r="A28" s="59">
         <v>11</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="D28" s="121" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="80">
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="67">
         <v>275000</v>
       </c>
-      <c r="I28" s="86">
+      <c r="I28" s="73">
         <v>3</v>
       </c>
-      <c r="J28" s="76">
+      <c r="J28" s="63">
         <f t="shared" si="0"/>
         <v>825000</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="39" customHeight="1">
-      <c r="A29" s="89"/>
-      <c r="B29" s="117" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="112" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="112"/>
-      <c r="J29" s="90">
+      <c r="A29" s="76"/>
+      <c r="B29" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="115"/>
+      <c r="J29" s="77">
         <f>SUM(J18:J28)</f>
         <v>18005000</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="39" customHeight="1">
-      <c r="A30" s="89"/>
-      <c r="B30" s="117" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="I30" s="118"/>
-      <c r="J30" s="91">
+      <c r="A30" s="76"/>
+      <c r="B30" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="116"/>
+      <c r="J30" s="78">
         <f>J16+J29</f>
         <v>26255000</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="105" customHeight="1">
-      <c r="A31" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="119"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
+      <c r="A31" s="117" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="29"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="29"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="29"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="92"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="29"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="29"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A1:B5"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
@@ -3711,12 +3699,21 @@
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A1:B5"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A31:J31"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.5" header="0.511811023622047" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Data/FileExport/XLSXTemplate/template.xlsx
+++ b/Data/FileExport/XLSXTemplate/template.xlsx
@@ -230,12 +230,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -246,7 +252,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDAF2F4"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -258,7 +264,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDAF2F4"/>
       </patternFill>
     </fill>
   </fills>
@@ -317,7 +329,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,7 +350,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -366,19 +382,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -386,11 +402,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -443,7 +459,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFAFAFA"/>
       <rgbColor rgb="FFDAF2F4"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -458,7 +474,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
@@ -494,13 +510,13 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.86"/>
@@ -552,7 +568,7 @@
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -576,232 +592,232 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="14"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="90.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="19"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="19"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="21" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="19"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="19"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K20" s="19"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K21" s="19"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K23" s="19"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
